--- a/CaseAssignmentPack.xlsx
+++ b/CaseAssignmentPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Documents\GitHub\Irfan123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057918ED-A77B-4BD7-B06C-C83A511546A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D594001-3897-4230-9B84-8D6CEBC32C0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CaseAssignmentPack.xlsx
+++ b/CaseAssignmentPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Documents\GitHub\Irfan123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385871E8-F8AB-494E-9BA8-74F13E15AB62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA9989F-6F2D-41B6-932E-0F45DAA73BC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CaseAssignmentPack.xlsx
+++ b/CaseAssignmentPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Documents\GitHub\Irfan123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA9989F-6F2D-41B6-932E-0F45DAA73BC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A229FD0-BD81-4AEB-AA80-4FA4F1860C80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CaseAssignmentPack.xlsx
+++ b/CaseAssignmentPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Documents\GitHub\Irfan123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A229FD0-BD81-4AEB-AA80-4FA4F1860C80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4297CE40-1841-40A2-9BC9-1791ADA735BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
